--- a/simulation_data/iterative_algorithm/i_error_level_10_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_10_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>86.5770520419378</v>
+        <v>92.36593956702558</v>
       </c>
       <c r="D2" t="n">
-        <v>14.64641929737196</v>
+        <v>12.66393290964106</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.43173930046494</v>
+        <v>89.85613453267685</v>
       </c>
       <c r="D3" t="n">
-        <v>15.74271424917798</v>
+        <v>12.64465444974969</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.10473935892099</v>
+        <v>87.46786950713509</v>
       </c>
       <c r="D4" t="n">
-        <v>16.19188912178513</v>
+        <v>14.54720621492069</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.63004962059695</v>
+        <v>85.45319183394771</v>
       </c>
       <c r="D5" t="n">
-        <v>15.54112189842334</v>
+        <v>12.03467759661368</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>83.97074613955809</v>
+        <v>84.42858461098764</v>
       </c>
       <c r="D6" t="n">
-        <v>14.84997314236693</v>
+        <v>13.63548423808941</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.51621991771155</v>
+        <v>86.07305671310037</v>
       </c>
       <c r="D7" t="n">
-        <v>15.30106951626792</v>
+        <v>13.4057294162824</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.80432309269462</v>
+        <v>83.17857151396299</v>
       </c>
       <c r="D8" t="n">
-        <v>14.66119252335671</v>
+        <v>15.16641384698695</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.76990126326353</v>
+        <v>82.52317445324071</v>
       </c>
       <c r="D9" t="n">
-        <v>15.59095904851274</v>
+        <v>15.39544979160301</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.40648863119718</v>
+        <v>79.8746836542096</v>
       </c>
       <c r="D10" t="n">
-        <v>15.45590786301143</v>
+        <v>14.98239367752407</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.30306443634818</v>
+        <v>80.47242828940966</v>
       </c>
       <c r="D11" t="n">
-        <v>15.22592499848705</v>
+        <v>16.26227887983325</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.0454206953316</v>
+        <v>78.59180455907095</v>
       </c>
       <c r="D12" t="n">
-        <v>15.7270888267428</v>
+        <v>15.29879579048485</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.40885015719833</v>
+        <v>78.46576417080104</v>
       </c>
       <c r="D13" t="n">
-        <v>14.50767108205378</v>
+        <v>13.19572446850485</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.32658396380951</v>
+        <v>78.37667267288515</v>
       </c>
       <c r="D14" t="n">
-        <v>16.51486454807279</v>
+        <v>13.87786548936139</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.23678425893061</v>
+        <v>75.27660849877174</v>
       </c>
       <c r="D15" t="n">
-        <v>13.80953371786645</v>
+        <v>14.69044551895275</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>72.50422877506514</v>
+        <v>76.11216567991889</v>
       </c>
       <c r="D16" t="n">
-        <v>14.73195785646822</v>
+        <v>13.28117763422725</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.11915579439184</v>
+        <v>75.22298073673092</v>
       </c>
       <c r="D17" t="n">
-        <v>15.07051663860749</v>
+        <v>12.3311177470736</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.12974909249918</v>
+        <v>72.9257850463317</v>
       </c>
       <c r="D18" t="n">
-        <v>13.3993539485752</v>
+        <v>13.36742282089291</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.93560188779817</v>
+        <v>72.7656450285515</v>
       </c>
       <c r="D19" t="n">
-        <v>14.72167251327939</v>
+        <v>13.4503661721434</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.6205601222553</v>
+        <v>74.77348476188558</v>
       </c>
       <c r="D20" t="n">
-        <v>13.65311695432032</v>
+        <v>15.93707695801427</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.50303865756032</v>
+        <v>69.04519982825111</v>
       </c>
       <c r="D21" t="n">
-        <v>16.01198522791028</v>
+        <v>14.70621528044971</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.91332340620841</v>
+        <v>70.19944604064669</v>
       </c>
       <c r="D22" t="n">
-        <v>15.322073460368</v>
+        <v>15.22778271815049</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.68864166552481</v>
+        <v>68.50818078354752</v>
       </c>
       <c r="D23" t="n">
-        <v>15.02416183013113</v>
+        <v>13.47923928118099</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.9044454876196</v>
+        <v>67.90642874378371</v>
       </c>
       <c r="D24" t="n">
-        <v>13.2611242079508</v>
+        <v>13.58200426058525</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.46789690306544</v>
+        <v>65.42461961231666</v>
       </c>
       <c r="D25" t="n">
-        <v>14.79916997695933</v>
+        <v>14.23427457429212</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.51069595412714</v>
+        <v>62.15996869114733</v>
       </c>
       <c r="D26" t="n">
-        <v>15.74292981864301</v>
+        <v>14.31533048757591</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.85279935067092</v>
+        <v>66.49292215632391</v>
       </c>
       <c r="D27" t="n">
-        <v>14.91544114099135</v>
+        <v>13.49723251647838</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.04913217541487</v>
+        <v>63.30142458005906</v>
       </c>
       <c r="D28" t="n">
-        <v>15.12978208950685</v>
+        <v>15.29017939124894</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.14120910376999</v>
+        <v>63.63747012934783</v>
       </c>
       <c r="D29" t="n">
-        <v>12.81531215060584</v>
+        <v>14.27802904811856</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.12382095630119</v>
+        <v>59.88925414083749</v>
       </c>
       <c r="D30" t="n">
-        <v>13.74820171725994</v>
+        <v>16.12112032675921</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>58.11371952219629</v>
+        <v>63.40225223579962</v>
       </c>
       <c r="D31" t="n">
-        <v>14.21021385493397</v>
+        <v>14.64140535671307</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.83734766310612</v>
+        <v>54.91095094796138</v>
       </c>
       <c r="D32" t="n">
-        <v>15.13205139966169</v>
+        <v>16.11013828791267</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.30953602048797</v>
+        <v>56.96467519196702</v>
       </c>
       <c r="D33" t="n">
-        <v>14.40912273893541</v>
+        <v>13.94865801677631</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.70966217666</v>
+        <v>58.88552631987529</v>
       </c>
       <c r="D34" t="n">
-        <v>12.46593461263689</v>
+        <v>15.33154303407551</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.84941459405932</v>
+        <v>54.94701331432543</v>
       </c>
       <c r="D35" t="n">
-        <v>14.58744320329146</v>
+        <v>13.77134996650583</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.07896759058515</v>
+        <v>57.54112357055561</v>
       </c>
       <c r="D36" t="n">
-        <v>13.80023267248715</v>
+        <v>13.15318905864284</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.15134272915358</v>
+        <v>57.00164290307909</v>
       </c>
       <c r="D37" t="n">
-        <v>15.20684545979157</v>
+        <v>13.60612290116566</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.50807338409926</v>
+        <v>53.29515054555788</v>
       </c>
       <c r="D38" t="n">
-        <v>17.13938023157127</v>
+        <v>15.53004683123502</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.41807056862221</v>
+        <v>52.93752334564667</v>
       </c>
       <c r="D39" t="n">
-        <v>14.35842917100869</v>
+        <v>14.83170561120451</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.24717430125661</v>
+        <v>51.91195572868068</v>
       </c>
       <c r="D40" t="n">
-        <v>13.74068777621769</v>
+        <v>14.02982144380085</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.22572066757473</v>
+        <v>50.29771281460989</v>
       </c>
       <c r="D41" t="n">
-        <v>17.22791277621925</v>
+        <v>12.31580957776797</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.36679492380181</v>
+        <v>52.4879873232025</v>
       </c>
       <c r="D42" t="n">
-        <v>14.27821723131029</v>
+        <v>15.4606515212329</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.70657747754188</v>
+        <v>49.76650867469809</v>
       </c>
       <c r="D43" t="n">
-        <v>13.78781123727211</v>
+        <v>14.74131333134396</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.69696612990922</v>
+        <v>46.93290083676872</v>
       </c>
       <c r="D44" t="n">
-        <v>13.91245512606693</v>
+        <v>16.07591599536039</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.59943480029019</v>
+        <v>47.90799841504671</v>
       </c>
       <c r="D45" t="n">
-        <v>15.11455450533837</v>
+        <v>14.06864365661606</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.55189910405524</v>
+        <v>44.08040336177301</v>
       </c>
       <c r="D46" t="n">
-        <v>14.53406010811743</v>
+        <v>14.2070227383572</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.28406190658174</v>
+        <v>44.85524428934336</v>
       </c>
       <c r="D47" t="n">
-        <v>15.59350529573363</v>
+        <v>14.85185480843724</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.62622995793261</v>
+        <v>46.06961883219515</v>
       </c>
       <c r="D48" t="n">
-        <v>14.4753804035132</v>
+        <v>13.52957088169531</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.95311582736209</v>
+        <v>43.01426367596061</v>
       </c>
       <c r="D49" t="n">
-        <v>15.6482169231872</v>
+        <v>13.99509699332359</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.36446836365693</v>
+        <v>43.24183404755269</v>
       </c>
       <c r="D50" t="n">
-        <v>14.26124445345409</v>
+        <v>14.08563235044589</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.60083355720339</v>
+        <v>40.85654328702768</v>
       </c>
       <c r="D51" t="n">
-        <v>15.20271785560778</v>
+        <v>12.92637883760779</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.09348695447861</v>
+        <v>40.74598961594618</v>
       </c>
       <c r="D52" t="n">
-        <v>14.54589099928403</v>
+        <v>15.50437023251656</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.13470821417593</v>
+        <v>35.4002609570772</v>
       </c>
       <c r="D53" t="n">
-        <v>15.46119578892458</v>
+        <v>15.05666158049436</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.98395511477489</v>
+        <v>34.56888692111345</v>
       </c>
       <c r="D54" t="n">
-        <v>13.35659159300937</v>
+        <v>16.03447553689687</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.7222350310758</v>
+        <v>35.1267281096315</v>
       </c>
       <c r="D55" t="n">
-        <v>16.00554390383742</v>
+        <v>15.96531373522802</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.11058719929898</v>
+        <v>34.55333872805581</v>
       </c>
       <c r="D56" t="n">
-        <v>13.38968941384401</v>
+        <v>15.24605594026064</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.87127141929943</v>
+        <v>37.55786801400738</v>
       </c>
       <c r="D57" t="n">
-        <v>15.47677380124647</v>
+        <v>15.07361054430477</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.31558277782561</v>
+        <v>32.34318637824722</v>
       </c>
       <c r="D58" t="n">
-        <v>14.85093833961877</v>
+        <v>14.36582890433038</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.84460567016661</v>
+        <v>34.94786919458906</v>
       </c>
       <c r="D59" t="n">
-        <v>14.36397987924193</v>
+        <v>12.4087997910853</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.54448053984926</v>
+        <v>29.72894713702023</v>
       </c>
       <c r="D60" t="n">
-        <v>13.17314415987225</v>
+        <v>16.12113776221874</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.33487110983636</v>
+        <v>29.86816887316234</v>
       </c>
       <c r="D61" t="n">
-        <v>14.22354499496815</v>
+        <v>15.63002557106376</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.27034971598393</v>
+        <v>31.13329594912392</v>
       </c>
       <c r="D62" t="n">
-        <v>15.25887955675098</v>
+        <v>16.0069575191462</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.75815129491425</v>
+        <v>26.78807176433014</v>
       </c>
       <c r="D63" t="n">
-        <v>15.31304594922741</v>
+        <v>15.35839841670832</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.14265113324991</v>
+        <v>24.82072716133779</v>
       </c>
       <c r="D64" t="n">
-        <v>16.37324180397925</v>
+        <v>14.18219077698011</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.15305964222828</v>
+        <v>28.48668088114174</v>
       </c>
       <c r="D65" t="n">
-        <v>13.28639057518121</v>
+        <v>15.26454658242726</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.34907356599295</v>
+        <v>25.51116368322257</v>
       </c>
       <c r="D66" t="n">
-        <v>14.90248486586973</v>
+        <v>14.66027065129699</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.68950815178194</v>
+        <v>24.01057884833524</v>
       </c>
       <c r="D67" t="n">
-        <v>15.59764660346904</v>
+        <v>16.74246446485451</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.00926061666619</v>
+        <v>25.21244511931293</v>
       </c>
       <c r="D68" t="n">
-        <v>16.4873419764905</v>
+        <v>14.96496903480085</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.12587774166309</v>
+        <v>24.18167182376208</v>
       </c>
       <c r="D69" t="n">
-        <v>14.39714173761457</v>
+        <v>14.85983541768193</v>
       </c>
     </row>
   </sheetData>
